--- a/COVID-19 Apps/Confirmed Day Zero Worldwide.xlsx
+++ b/COVID-19 Apps/Confirmed Day Zero Worldwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{521391DE-CAA0-41C6-AC76-F6EA92189F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A834289-DD0A-4D1B-A08F-43BFE17694F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Country/Region</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Value: Person per million</t>
+  </si>
+  <si>
+    <t>Day 57</t>
   </si>
 </sst>
 </file>
@@ -1148,6 +1151,9 @@
                 <c:pt idx="15">
                   <c:v>1243</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>1486</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1491,6 +1497,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,6 +1936,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,6 +2371,9 @@
                 <c:pt idx="46">
                   <c:v>9257</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>12327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2626,6 +2641,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,6 +3041,9 @@
                 <c:pt idx="26">
                   <c:v>16169</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>17361</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3392,6 +3413,9 @@
                 <c:pt idx="25">
                   <c:v>31506</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>35713</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3824,6 +3848,9 @@
                 <c:pt idx="46">
                   <c:v>8320</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>8413</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4181,6 +4208,9 @@
                 <c:pt idx="21">
                   <c:v>11748</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>13910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4531,6 +4561,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4884,6 +4917,9 @@
                 <c:pt idx="19">
                   <c:v>2700</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3028</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5200,6 +5236,9 @@
                 <c:pt idx="7">
                   <c:v>6353</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>7715</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5603,6 +5642,9 @@
                 <c:pt idx="36">
                   <c:v>1960</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2641</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5907,6 +5949,9 @@
                       <c:pt idx="17">
                         <c:v>1332</c:v>
                       </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1646</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5924,7 +5969,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Confirmed Day Zero'!$A$5</c15:sqref>
@@ -5953,7 +5998,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Confirmed Day Zero'!$G$1:$BJ$1</c15:sqref>
@@ -6135,7 +6180,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Confirmed Day Zero'!$G$5:$BJ$5</c15:sqref>
@@ -6317,7 +6362,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E64C-4291-BD76-358C72622E6B}"/>
                   </c:ext>
@@ -6635,9 +6680,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -6805,16 +6850,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$19:$BJ$19</c:f>
+              <c:f>'Confirmed Day Zero'!$G$19:$BK$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>6.9027266892115471E-4</c:v>
                 </c:pt>
@@ -6864,7 +6912,7 @@
                   <c:v>0.10725111593362442</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.12821814825210448</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -6981,6 +7029,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7021,9 +7072,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7191,16 +7242,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$20:$BJ$20</c:f>
+              <c:f>'Confirmed Day Zero'!$G$20:$BK$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>1.3247786546576011E-4</c:v>
                 </c:pt>
@@ -7328,7 +7382,7 @@
                   <c:v>1.2452919353781452E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.716913136436251E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>#N/A</c:v>
@@ -7367,6 +7421,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7478,9 +7535,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7648,16 +7705,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$22:$BJ$22</c:f>
+              <c:f>'Confirmed Day Zero'!$G$22:$BK$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>7.6600751566741979E-5</c:v>
                 </c:pt>
@@ -7806,7 +7866,7 @@
                   <c:v>0.11794983726246931</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.13948996860303714</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -7824,6 +7884,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7936,9 +7999,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8106,16 +8169,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$23:$BJ$23</c:f>
+              <c:f>'Confirmed Day Zero'!$G$23:$BK$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>5.9677306660982847E-5</c:v>
                 </c:pt>
@@ -8258,7 +8324,7 @@
                   <c:v>0.11048656555214363</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.1471284318419871</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>#N/A</c:v>
@@ -8282,6 +8348,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8324,9 +8393,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8494,16 +8563,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$24:$BJ$24</c:f>
+              <c:f>'Confirmed Day Zero'!$G$24:$BK$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>3.6231768930212493E-6</c:v>
                 </c:pt>
@@ -8553,7 +8625,7 @@
                   <c:v>1.0289822376180348E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1304311906226297E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -8670,6 +8742,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8807,9 +8882,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8977,16 +9052,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$25:$BJ$25</c:f>
+              <c:f>'Confirmed Day Zero'!$G$25:$BK$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>5.9528806400165803E-5</c:v>
                 </c:pt>
@@ -9069,7 +9147,7 @@
                   <c:v>0.19250425413685618</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.20669592158265571</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>#N/A</c:v>
@@ -9153,6 +9231,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9266,9 +9347,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9436,16 +9517,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$26:$BJ$26</c:f>
+              <c:f>'Confirmed Day Zero'!$G$26:$BK$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>3.3078723093807983E-4</c:v>
                 </c:pt>
@@ -9525,7 +9609,7 @@
                   <c:v>0.52108912489675718</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.59067021892458227</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -9612,6 +9696,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9725,9 +9812,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9895,16 +9982,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$27:$BJ$27</c:f>
+              <c:f>'Confirmed Day Zero'!$G$27:$BK$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2.145538299467799E-4</c:v>
                 </c:pt>
@@ -10047,7 +10137,7 @@
                   <c:v>0.16228071501429173</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.16409467012202358</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>#N/A</c:v>
@@ -10071,6 +10161,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10184,9 +10277,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10354,16 +10447,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$28:$BJ$28</c:f>
+              <c:f>'Confirmed Day Zero'!$G$28:$BK$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>1.2832913034043278E-4</c:v>
                 </c:pt>
@@ -10431,7 +10527,7 @@
                   <c:v>0.25126843720656739</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.29750970050590342</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -10530,6 +10626,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10643,9 +10742,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10813,16 +10912,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$29:$BJ$29</c:f>
+              <c:f>'Confirmed Day Zero'!$G$29:$BK$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>6.9311974683306161E-4</c:v>
                 </c:pt>
@@ -10884,7 +10986,7 @@
                   <c:v>0.11783035696162047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.1266428794570694</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>#N/A</c:v>
@@ -10989,6 +11091,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11103,9 +11208,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11273,16 +11378,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$30:$BJ$30</c:f>
+              <c:f>'Confirmed Day Zero'!$G$30:$BK$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>9.2436157234827821E-4</c:v>
                 </c:pt>
@@ -11344,7 +11452,7 @@
                   <c:v>0.31197203066754392</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34987085513382332</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>#N/A</c:v>
@@ -11449,6 +11557,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11563,9 +11674,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11733,16 +11844,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$31:$BJ$31</c:f>
+              <c:f>'Confirmed Day Zero'!$G$31:$BK$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2.6948424651740931E-3</c:v>
                 </c:pt>
@@ -11768,7 +11882,7 @@
                   <c:v>1.9193199754765709E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.3307970424684001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -11909,6 +12023,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -12023,9 +12140,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$BJ$1</c:f>
+              <c:f>'Confirmed Day Zero'!$G$1:$BK$1</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -12193,16 +12310,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>Day 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Day 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$32:$BJ$32</c:f>
+              <c:f>'Confirmed Day Zero'!$G$32:$BK$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>1.178446027709597E-4</c:v>
                 </c:pt>
@@ -12315,7 +12435,7 @@
                   <c:v>2.8871927678885124E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.890344948976307E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>#N/A</c:v>
@@ -12369,6 +12489,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -12432,12 +12555,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$1:$BJ$1</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$1:$BK$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="56"/>
+                      <c:ptCount val="57"/>
                       <c:pt idx="0">
                         <c:v>Day 1</c:v>
                       </c:pt>
@@ -12605,6 +12728,9 @@
                       </c:pt>
                       <c:pt idx="55">
                         <c:v>Day 56</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>Day 57</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12614,13 +12740,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$18:$BJ$18</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$18:$BK$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0.000</c:formatCode>
-                      <c:ptCount val="56"/>
+                      <c:ptCount val="57"/>
                       <c:pt idx="0">
                         <c:v>9.9928961611512159E-4</c:v>
                       </c:pt>
@@ -12676,7 +12802,7 @@
                         <c:v>0.14789486318503803</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>#N/A</c:v>
+                        <c:v>0.18275896756949894</c:v>
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>#N/A</c:v>
@@ -12787,6 +12913,9 @@
                         <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="55">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
                         <c:v>#N/A</c:v>
                       </c:pt>
                     </c:numCache>
@@ -12838,12 +12967,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$1:$BJ$1</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$1:$BK$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="56"/>
+                      <c:ptCount val="57"/>
                       <c:pt idx="0">
                         <c:v>Day 1</c:v>
                       </c:pt>
@@ -13011,6 +13140,9 @@
                       </c:pt>
                       <c:pt idx="55">
                         <c:v>Day 56</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>Day 57</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -13020,13 +13152,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$21:$BJ$21</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$21:$BK$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0.000</c:formatCode>
-                      <c:ptCount val="56"/>
+                      <c:ptCount val="57"/>
                       <c:pt idx="0">
                         <c:v>3.8073434840556685E-4</c:v>
                       </c:pt>
@@ -13194,6 +13326,9 @@
                       </c:pt>
                       <c:pt idx="55">
                         <c:v>5.6316724111420503E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>5.6347294022606353E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14897,10 +15032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ32"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC73" sqref="AC73"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14908,7 +15043,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15095,8 +15230,11 @@
       <c r="BJ1" t="s">
         <v>61</v>
       </c>
+      <c r="BK1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -15166,8 +15304,11 @@
       <c r="X2">
         <v>1332</v>
       </c>
+      <c r="Y2">
+        <v>1646</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -15231,8 +15372,11 @@
       <c r="V3">
         <v>1243</v>
       </c>
+      <c r="W3">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -15374,8 +15518,11 @@
       <c r="AV4">
         <v>470</v>
       </c>
+      <c r="AW4">
+        <v>648</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -15559,8 +15706,11 @@
       <c r="BJ5">
         <v>81058</v>
       </c>
+      <c r="BK5">
+        <v>81102</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -15723,8 +15873,11 @@
       <c r="BC6">
         <v>7699</v>
       </c>
+      <c r="BD6">
+        <v>9105</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -15881,8 +16034,11 @@
       <c r="BA7">
         <v>9257</v>
       </c>
+      <c r="BB7">
+        <v>12327</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -15946,8 +16102,11 @@
       <c r="V8">
         <v>142</v>
       </c>
+      <c r="W8">
+        <v>156</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -16044,8 +16203,11 @@
       <c r="AG9">
         <v>16169</v>
       </c>
+      <c r="AH9">
+        <v>17361</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -16139,8 +16301,11 @@
       <c r="AF10">
         <v>31506</v>
       </c>
+      <c r="AG10">
+        <v>35713</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -16297,8 +16462,11 @@
       <c r="BA11">
         <v>8320</v>
       </c>
+      <c r="BB11">
+        <v>8413</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -16380,8 +16548,11 @@
       <c r="AB12">
         <v>11748</v>
       </c>
+      <c r="AC12">
+        <v>13910</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -16457,8 +16628,11 @@
       <c r="Z13">
         <v>1190</v>
       </c>
+      <c r="AA13">
+        <v>1279</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -16534,8 +16708,11 @@
       <c r="Z14">
         <v>2700</v>
       </c>
+      <c r="AA14">
+        <v>3028</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -16575,8 +16752,11 @@
       <c r="N15">
         <v>6353</v>
       </c>
+      <c r="O15">
+        <v>7715</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -16703,8 +16883,11 @@
       <c r="AQ16">
         <v>1960</v>
       </c>
+      <c r="AR16">
+        <v>2641</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -16783,9 +16966,9 @@
         <f t="shared" si="0"/>
         <v>0.14789486318503803</v>
       </c>
-      <c r="Y18" s="1" t="e">
+      <c r="Y18" s="1">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>0.18275896756949894</v>
       </c>
       <c r="Z18" s="1" t="e">
         <f t="shared" si="0"/>
@@ -16935,8 +17118,12 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="BK18" s="1" t="e">
+        <f t="shared" ref="BK18" si="1">IF(BK2=0,#N/A,BK2/$B2*1000)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -16944,689 +17131,701 @@
         <v>78</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:BJ19" si="1">IF(G3=0,#N/A,G3/$B3*1000)</f>
+        <f t="shared" ref="G19:BJ19" si="2">IF(G3=0,#N/A,G3/$B3*1000)</f>
         <v>6.9027266892115471E-4</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1216930869968763E-3</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9845339231483196E-3</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3142041807572177E-3</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4049651140507336E-3</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4582010130959394E-2</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7256816723028871E-2</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0621895984019496E-2</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3037850325243539E-2</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7093202255155321E-2</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7093202255155321E-2</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8232802740865686E-2</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9449733610834457E-2</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6447698083017893E-2</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1288560464822713E-2</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10725111593362442</v>
       </c>
-      <c r="W19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="W19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12821814825210448</v>
       </c>
       <c r="X19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="Y19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="Z19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AB19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AC19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AD19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AE19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AF19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AG19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AH19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AI19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AJ19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AK19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AL19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AM19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AN19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AO19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AP19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AQ19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AR19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AS19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AT19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AU19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AV19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AW19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AX19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AY19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AZ19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BA19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BB19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BC19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BD19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BE19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BF19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BG19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BH19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BI19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="BJ19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK19" s="1" t="e">
+        <f t="shared" ref="BK19" si="3">IF(BK3=0,#N/A,BK3/$B3*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:BJ20" si="2">IF(G4=0,#N/A,G4/$B4*1000)</f>
+        <f t="shared" ref="G20:BJ20" si="4">IF(G4=0,#N/A,G4/$B4*1000)</f>
         <v>1.3247786546576011E-4</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3247786546576011E-4</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8546901165206417E-4</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1196458474521617E-4</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1196458474521617E-4</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1196458474521617E-4</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1196458474521617E-4</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3846015783836818E-4</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3846015783836818E-4</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3846015783836818E-4</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6495573093152021E-4</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9145130402467227E-4</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9145130402467227E-4</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4444245021097628E-4</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.7093802330412834E-4</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2991146186304042E-4</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.3589375423564855E-4</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1538047351510467E-4</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.9486719279456069E-4</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.743539120740167E-4</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.8033620444662483E-4</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2982830815644491E-3</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4307609470302093E-3</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6957166779617294E-3</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0401591281727057E-3</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0931502743590097E-3</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8615218940604187E-3</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0999820518987867E-3</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.060654460792036E-3</v>
       </c>
       <c r="AS20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1931323262577964E-3</v>
       </c>
       <c r="AT20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.6238932732880056E-3</v>
       </c>
       <c r="AU20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0942671687471785E-2</v>
       </c>
       <c r="AV20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2452919353781452E-2</v>
       </c>
-      <c r="AW20" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="AW20" s="1">
+        <f t="shared" si="4"/>
+        <v>1.716913136436251E-2</v>
       </c>
       <c r="AX20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AY20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AZ20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BA20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BB20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BC20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BD20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BE20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BF20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BG20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BH20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BI20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="BJ20" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK20" s="1" t="e">
+        <f t="shared" ref="BK20" si="5">IF(BK4=0,#N/A,BK4/$B4*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:BJ21" si="3">IF(G5=0,#N/A,G5/$B5*1000)</f>
+        <f t="shared" ref="G21:BJ21" si="6">IF(G5=0,#N/A,G5/$B5*1000)</f>
         <v>3.8073434840556685E-4</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.4673756573864869E-4</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3918905206773995E-4</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.7684761652961131E-4</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4416492206962613E-3</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9988553291292255E-3</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8274918346099772E-3</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.2290693042786225E-3</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6561283400907289E-3</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.8101424873565066E-3</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.2615184979755382E-3</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.155403688683317E-2</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3698099294095174E-2</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6470929192793381E-2</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9064508248629111E-2</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1250951669126043E-2</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3698628876120224E-2</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.5577288872632366E-2</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7672022559571754E-2</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9426318599214192E-2</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.0838092679433375E-2</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1097242153804317E-2</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1613291601736178E-2</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.6103594692512045E-2</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.7531348499032927E-2</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.8990366987448415E-2</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.0325021518994213E-2</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.1559629068477227E-2</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.1843095517655091E-2</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.216130050227142E-2</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.2489927047519293E-2</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.3498039345943521E-2</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.3512629530827679E-2</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.3664784316048153E-2</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.4021201689646789E-2</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.4307447221659734E-2</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.4608977709265601E-2</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.4836862501741933E-2</v>
       </c>
       <c r="AS21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5134224365095186E-2</v>
       </c>
       <c r="AT21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.553441229334629E-2</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5676145517935219E-2</v>
       </c>
       <c r="AV21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5762991856531378E-2</v>
       </c>
       <c r="AW21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5849838195127545E-2</v>
       </c>
       <c r="AX21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5954748572151707E-2</v>
       </c>
       <c r="AY21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6061048490593408E-2</v>
       </c>
       <c r="AZ21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6116630147294948E-2</v>
       </c>
       <c r="BA21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6153452994859715E-2</v>
       </c>
       <c r="BB21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6179159511084181E-2</v>
       </c>
       <c r="BC21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6197918320220953E-2</v>
       </c>
       <c r="BD21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6221540524319109E-2</v>
       </c>
       <c r="BE21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6229183002115574E-2</v>
       </c>
       <c r="BF21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6238215021329571E-2</v>
       </c>
       <c r="BG21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6260447684010194E-2</v>
       </c>
       <c r="BH21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6278511722438189E-2</v>
       </c>
       <c r="BI21" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(BI5=0,#N/A,BI5/$B5*1000)</f>
         <v>5.6299354843701264E-2</v>
       </c>
       <c r="BJ21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6316724111420503E-2</v>
       </c>
+      <c r="BK21" s="1">
+        <f t="shared" ref="BK21" si="7">IF(BK5=0,#N/A,BK5/$B5*1000)</f>
+        <v>5.6347294022606353E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -17634,2517 +17833,2561 @@
         <v>79</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ref="G22:BJ22" si="4">IF(G6=0,#N/A,G6/$B6*1000)</f>
+        <f t="shared" ref="G22:BJ22" si="8">IF(G6=0,#N/A,G6/$B6*1000)</f>
         <v>7.6600751566741979E-5</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6600751566741979E-5</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6600751566741979E-5</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1920901880090386E-5</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1920901880090386E-5</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1920901880090386E-5</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1920901880090386E-5</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1920901880090386E-5</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1920901880090386E-5</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1920901880090386E-5</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6852165344683238E-4</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6852165344683238E-4</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6852165344683238E-4</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6852165344683238E-4</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6852165344683238E-4</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6852165344683238E-4</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6852165344683238E-4</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8384180376018077E-4</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1448210438687753E-4</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7576270564027113E-4</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.8216571190723904E-4</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.7324856786085857E-4</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5320150313348397E-3</v>
       </c>
       <c r="AM22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9916195407352912E-3</v>
       </c>
       <c r="AN22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.9261487098495437E-3</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1253106639230728E-3</v>
       </c>
       <c r="AP22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4122032902443381E-3</v>
       </c>
       <c r="AQ22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.8216571190723909E-3</v>
       </c>
       <c r="AR22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0050018605556548E-2</v>
       </c>
       <c r="AS22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4661383849874416E-2</v>
       </c>
       <c r="AT22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7373050455337082E-2</v>
       </c>
       <c r="AU22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8644622931344997E-2</v>
       </c>
       <c r="AV22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7453709361520324E-2</v>
       </c>
       <c r="AW22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5083144217567828E-2</v>
       </c>
       <c r="AX22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5083144217567828E-2</v>
       </c>
       <c r="AY22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6347512852495403E-2</v>
       </c>
       <c r="AZ22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.874151445599426E-2</v>
       </c>
       <c r="BA22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9293039867274794E-2</v>
       </c>
       <c r="BB22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10215476228940711</v>
       </c>
       <c r="BC22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11794983726246931</v>
       </c>
-      <c r="BD22" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="BD22" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13948996860303714</v>
       </c>
       <c r="BE22" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="BF22" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="BG22" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="BH22" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="BI22" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="BJ22" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK22" s="1" t="e">
+        <f t="shared" ref="BK22" si="9">IF(BK6=0,#N/A,BK6/$B6*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:BJ23" si="5">IF(G7=0,#N/A,G7/$B7*1000)</f>
+        <f t="shared" ref="G23:BJ23" si="10">IF(G7=0,#N/A,G7/$B7*1000)</f>
         <v>5.9677306660982847E-5</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.5483690657572549E-5</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1935461332196569E-4</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4322553598635884E-4</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4322553598635884E-4</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4322553598635884E-4</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4322553598635884E-4</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.551609973185554E-4</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.551609973185554E-4</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6709645865075197E-4</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6709645865075197E-4</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.909673813151451E-4</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.0290284264734166E-4</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.2225745596930734E-4</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4903122128104216E-4</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.7290214394543535E-4</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.429014452435289E-4</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.5516099731855539E-3</v>
       </c>
       <c r="AL23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.8977383518192542E-3</v>
       </c>
       <c r="AM23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.3393504211105271E-3</v>
       </c>
       <c r="AN23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.1270908690355006E-3</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.7528923621187463E-3</v>
       </c>
       <c r="AP23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.9967590925717012E-3</v>
       </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.536433604425059E-3</v>
       </c>
       <c r="AR23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.2412879785484431E-2</v>
       </c>
       <c r="AS23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4036102526663163E-2</v>
       </c>
       <c r="AT23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.7389967161010399E-2</v>
       </c>
       <c r="AU23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.2772860221831052E-2</v>
       </c>
       <c r="AV23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.480188864830447E-2</v>
       </c>
       <c r="AW23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.3862820395822393E-2</v>
       </c>
       <c r="AX23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4724090208121266E-2</v>
       </c>
       <c r="AY23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.9165998420079103E-2</v>
       </c>
       <c r="AZ23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.6794674807733438E-2</v>
       </c>
       <c r="BA23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.11048656555214363</v>
       </c>
-      <c r="BB23" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="BB23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.1471284318419871</v>
       </c>
       <c r="BC23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="BD23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="BE23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="BF23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="BG23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="BH23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="BI23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="BJ23" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK23" s="1" t="e">
+        <f t="shared" ref="BK23" si="11">IF(BK7=0,#N/A,BK7/$B7*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:BJ24" si="6">IF(G8=0,#N/A,G8/$B8*1000)</f>
+        <f t="shared" ref="G24:BJ24" si="12">IF(G8=0,#N/A,G8/$B8*1000)</f>
         <v>3.6231768930212493E-6</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.6231768930212493E-6</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.0289790600918996E-5</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.1739061358127495E-5</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.2463696736731746E-5</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.4637602872544494E-5</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.8260779765565743E-5</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.1159321279982745E-5</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.0579581201837992E-5</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.4927393473463493E-5</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.2898382638110244E-5</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.9420101045548492E-5</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.3912808617633484E-5</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8.1883797782280249E-5</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8.6231610053905729E-5</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0289822376180348E-4</v>
       </c>
-      <c r="W24" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
+      <c r="W24" s="1">
+        <f t="shared" si="12"/>
+        <v>1.1304311906226297E-4</v>
       </c>
       <c r="X24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Y24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Z24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AA24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AB24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AC24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AD24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AE24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AF24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AG24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AH24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AI24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AJ24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AK24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AL24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AM24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AN24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AO24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AP24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AQ24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AR24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AS24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AT24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AU24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AV24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AW24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AX24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AY24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AZ24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BA24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BB24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BC24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BD24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BE24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BF24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BG24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BH24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BI24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="BJ24" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK24" s="1" t="e">
+        <f t="shared" ref="BK24" si="13">IF(BK8=0,#N/A,BK8/$B8*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:BJ25" si="7">IF(G9=0,#N/A,G9/$B9*1000)</f>
+        <f t="shared" ref="G25:BJ25" si="14">IF(G9=0,#N/A,G9/$B9*1000)</f>
         <v>5.9528806400165803E-5</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.143037030405969E-4</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.3336131584092851E-4</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.1194773504142596E-4</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.2625143808202283E-4</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.1310473216031502E-3</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.6549008179246095E-3</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.9169115136081247E-3</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.6194353766528667E-3</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.0601164390596645E-3</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.1643834531872432E-2</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.7870547681329774E-2</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.7811858350157464E-2</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.4788634460256894E-2</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.1824939376756493E-2</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.6516648796317417E-2</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.9327247933633096E-2</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.8173228564697744E-2</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.5257156526317462E-2</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.5746132214026669E-2</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.10715185152029845</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.1199505448963341</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.13529707118629683</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.15154843533354209</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.1659425007211022</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.17847926734897712</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.19250425413685618</v>
       </c>
-      <c r="AH25" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
+      <c r="AH25" s="1">
+        <f t="shared" si="14"/>
+        <v>0.20669592158265571</v>
       </c>
       <c r="AI25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AJ25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AK25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AL25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AM25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AN25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AO25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AP25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AQ25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AR25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AS25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AT25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AU25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AV25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AW25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AX25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AY25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AZ25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BA25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BB25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BC25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BD25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BE25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BF25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BG25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BH25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BI25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="BJ25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK25" s="1" t="e">
+        <f t="shared" ref="BK25" si="15">IF(BK9=0,#N/A,BK9/$B9*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:BJ26" si="8">IF(G10=0,#N/A,G10/$B10*1000)</f>
+        <f t="shared" ref="G26:BJ26" si="16">IF(G10=0,#N/A,G10/$B10*1000)</f>
         <v>3.3078723093807983E-4</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.0254404159080474E-3</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2.563601039770119E-3</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3.7875137942410143E-3</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.3256744181030859E-3</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.4923307807475076E-3</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.0833281813222115E-2</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.4686953053650744E-2</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.8656399824907702E-2</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2.8017678460455362E-2</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3.3674140109496521E-2</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.1381482590353791E-2</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.1090087818386434E-2</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.3808856847955592E-2</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.6676480131446914E-2</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.7301063980436184E-2</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.12197779140841694</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.15169902410820341</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.16785798033952862</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.20611352359751753</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.20611352359751753</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.2920851249183245</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.34992327224784781</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.40929958020123308</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.4627713360823737</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.52108912489675718</v>
       </c>
-      <c r="AG26" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
+      <c r="AG26" s="1">
+        <f t="shared" si="16"/>
+        <v>0.59067021892458227</v>
       </c>
       <c r="AH26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AI26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AJ26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AK26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AL26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AM26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AN26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AO26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AP26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AQ26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AR26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AS26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AT26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AU26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AV26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AW26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AX26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AY26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AZ26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BA26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BB26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BC26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BD26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BE26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BF26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BG26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BH26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BI26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="BJ26" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK26" s="1" t="e">
+        <f t="shared" ref="BK26" si="17">IF(BK10=0,#N/A,BK10/$B10*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27:BJ27" si="9">IF(G11=0,#N/A,G11/$B11*1000)</f>
+        <f t="shared" ref="G27:BJ27" si="18">IF(G11=0,#N/A,G11/$B11*1000)</f>
         <v>2.145538299467799E-4</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.3405872357830536E-4</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.9257340447288169E-4</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.9257340447288169E-4</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.1207829810440718E-4</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.7059297899898349E-4</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.4861255352508528E-4</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.6811744715661072E-4</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.6811744715661072E-4</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.8762234078813616E-4</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.2663212805118713E-4</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.4613702168271252E-4</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.4613702168271252E-4</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.4613702168271252E-4</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.4613702168271252E-4</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.4613702168271252E-4</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.656419153142379E-4</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.8514680894576339E-4</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.0465170257728888E-4</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.0465170257728888E-4</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.0285089376786466E-3</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.9789983008311916E-3</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>8.4456189424505189E-3</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.174194596617832E-2</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.6247576395060699E-2</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.9056281078000361E-2</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.4595670869353589E-2</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.4445642153273941E-2</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.558293641687497E-2</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.144041493930516E-2</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.2870282607379072E-2</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>8.4553713892662807E-2</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.10115237837309096</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.10963700710280455</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.11874579242872693</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.12859576371264728</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.13733395605957069</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.14265879202097712</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.14585759457654732</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.14654026585365068</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.15126045011247985</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.15348400798647374</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.15562954628594156</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.15771656990451477</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.1591989418205107</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.16064230394924359</v>
       </c>
       <c r="BA27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.16228071501429173</v>
       </c>
-      <c r="BB27" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
+      <c r="BB27" s="1">
+        <f t="shared" si="18"/>
+        <v>0.16409467012202358</v>
       </c>
       <c r="BC27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="BD27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="BE27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="BF27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="BG27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="BH27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="BI27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="BJ27" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK27" s="1" t="e">
+        <f t="shared" ref="BK27" si="19">IF(BK11=0,#N/A,BK11/$B11*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ref="G28:BJ28" si="10">IF(G12=0,#N/A,G12/$B12*1000)</f>
+        <f t="shared" ref="G28:BJ28" si="20">IF(G12=0,#N/A,G12/$B12*1000)</f>
         <v>1.2832913034043278E-4</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.7804644907093777E-4</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.2082282585108198E-4</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>6.8442202848230827E-4</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9.6246847755324593E-4</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.7966078247660592E-3</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.5665826068086558E-3</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.5290510843619016E-3</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.748177822596014E-3</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>5.5395407930286826E-3</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>8.5552753560288533E-3</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.0694094195036067E-2</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.4394250786518546E-2</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.2949526142547399E-2</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.625297932117226E-2</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.8700904964194248E-2</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.8700904964194248E-2</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.1119030016568574</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.13669191200095102</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.16678509306578251</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.21264136897409713</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.25126843720656739</v>
       </c>
-      <c r="AC28" s="1" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
+      <c r="AC28" s="1">
+        <f t="shared" si="20"/>
+        <v>0.29750970050590342</v>
       </c>
       <c r="AD28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AE28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AF28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AG28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AH28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AI28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AJ28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AK28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AL28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AM28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AN28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AO28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AP28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AQ28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AR28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AS28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AT28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AU28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AV28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AW28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AX28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AY28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AZ28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BA28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BB28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BC28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BD28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BE28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BF28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BG28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BH28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BI28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="BJ28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK28" s="1" t="e">
+        <f t="shared" ref="BK28" si="21">IF(BK12=0,#N/A,BK12/$B12*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:BJ29" si="11">IF(G13=0,#N/A,G13/$B13*1000)</f>
+        <f t="shared" ref="G29:BJ29" si="22">IF(G13=0,#N/A,G13/$B13*1000)</f>
         <v>6.9311974683306161E-4</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6.9311974683306161E-4</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.1882052802852485E-3</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.3862394936661232E-3</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.4852566003565606E-3</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.0793592404991846E-3</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.4655987341653078E-3</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>9.3076080289011143E-3</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0000727775734176E-2</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.5941754177160417E-2</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.0100472658158789E-2</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.455624245922847E-2</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.5151072875105265E-2</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>4.9508553345218684E-2</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5.9311246907571988E-2</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>8.0599924846016024E-2</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>9.5155439529510319E-2</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.101195483037627</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.10921586867955242</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.11783035696162047</v>
       </c>
-      <c r="AA29" s="1" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
+      <c r="AA29" s="1">
+        <f t="shared" si="22"/>
+        <v>0.1266428794570694</v>
       </c>
       <c r="AB29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AC29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AD29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AE29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AF29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AG29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AH29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AI29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AJ29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AK29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AL29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AM29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AN29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AO29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AP29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AQ29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AR29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AS29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AT29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AU29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AV29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AW29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AX29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AY29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AZ29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BA29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BB29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BC29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BD29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BE29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BF29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BG29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BH29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BI29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="BJ29" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK29" s="1" t="e">
+        <f t="shared" ref="BK29" si="23">IF(BK13=0,#N/A,BK13/$B13*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ref="G30:BJ30" si="12">IF(G14=0,#N/A,G14/$B14*1000)</f>
+        <f t="shared" ref="G30:BJ30" si="24">IF(G14=0,#N/A,G14/$B14*1000)</f>
         <v>9.2436157234827821E-4</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>9.2436157234827821E-4</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.079813537783626E-3</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.1197203066754388E-3</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.8528982548284609E-3</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.4705310064379472E-3</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.0399067688918131E-2</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.3172152405962964E-2</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.4726672060316441E-2</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.096611267366732E-2</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.8938731235171213E-2</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.3213903507282006E-2</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>5.6732691502875576E-2</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>7.5335468146384671E-2</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>7.5335468146384671E-2</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.13160597886308609</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.15702592210266378</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.25419943239577653</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.25419943239577653</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.31197203066754392</v>
       </c>
-      <c r="AA30" s="1" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
+      <c r="AA30" s="1">
+        <f t="shared" si="24"/>
+        <v>0.34987085513382332</v>
       </c>
       <c r="AB30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AC30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AD30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AE30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AF30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AG30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AH30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AI30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AJ30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AK30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AL30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AM30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AN30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AO30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AP30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AQ30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AR30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AS30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AT30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AU30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AV30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AW30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AX30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AY30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AZ30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BA30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BB30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BC30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BD30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BE30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BF30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BG30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BH30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BI30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="BJ30" s="1" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK30" s="1" t="e">
+        <f t="shared" ref="BK30" si="25">IF(BK14=0,#N/A,BK14/$B14*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" ref="G31:BJ31" si="13">IF(G15=0,#N/A,G15/$B15*1000)</f>
+        <f t="shared" ref="G31:BJ31" si="26">IF(G15=0,#N/A,G15/$B15*1000)</f>
         <v>2.6948424651740931E-3</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.6676443416158622E-3</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>4.8217136484505077E-3</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>6.3806135498292432E-3</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>8.0361894140841775E-3</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.0368497018472519E-2</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.3791430329057998E-2</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.9193199754765709E-2</v>
       </c>
-      <c r="O31" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
+      <c r="O31" s="1">
+        <f t="shared" si="26"/>
+        <v>2.3307970424684001E-2</v>
       </c>
       <c r="P31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="Q31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="R31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="S31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="T31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="U31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="V31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="W31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="X31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="Y31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="Z31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AA31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AB31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AC31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AD31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AE31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AF31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AG31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AH31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AI31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AJ31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AK31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AL31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AM31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AN31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AO31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AP31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AQ31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AR31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AS31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AT31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AU31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AV31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AW31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AX31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AY31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AZ31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BA31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BB31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BC31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BD31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BE31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BF31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BG31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BH31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BI31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="BJ31" s="1" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK31" s="1" t="e">
+        <f t="shared" ref="BK31" si="27">IF(BK15=0,#N/A,BK15/$B15*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ref="G32:BJ32" si="14">IF(G16=0,#N/A,G16/$B16*1000)</f>
+        <f t="shared" ref="G32:BJ32" si="28">IF(G16=0,#N/A,G16/$B16*1000)</f>
         <v>1.178446027709597E-4</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.178446027709597E-4</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.3257517811732965E-4</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.914974795028095E-4</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.914974795028095E-4</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.914974795028095E-4</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.2095863019554941E-4</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.9461150692739927E-4</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>3.3880323296650914E-4</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>5.3030071246931861E-4</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>5.8922301385479854E-4</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>7.5125934266486805E-4</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.2668294797878166E-3</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.7087467401789155E-3</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.4158143568046735E-3</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>3.049229096698582E-3</v>
       </c>
       <c r="AH32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>4.0361776449053689E-3</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>4.7432452615311276E-3</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>5.6565409330060646E-3</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6.761334083983812E-3</v>
       </c>
       <c r="AL32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6.761334083983812E-3</v>
       </c>
       <c r="AM32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.1813921427788709E-2</v>
       </c>
       <c r="AN32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.6851778196247238E-2</v>
       </c>
       <c r="AO32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.6866508771593604E-2</v>
       </c>
       <c r="AP32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.2847122362219811E-2</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.8871927678885124E-2</v>
       </c>
-      <c r="AR32" s="1" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
+      <c r="AR32" s="1">
+        <f t="shared" si="28"/>
+        <v>3.890344948976307E-2</v>
       </c>
       <c r="AS32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="AT32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="AU32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="AV32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="AW32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="AX32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="AY32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="AZ32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BA32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BB32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BC32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BD32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BE32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BF32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BG32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BH32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BI32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="BJ32" s="1" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK32" s="1" t="e">
+        <f t="shared" ref="BK32" si="29">IF(BK16=0,#N/A,BK16/$B16*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
